--- a/Code/Results/Cases/Case_3_222/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_222/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.096825424585546</v>
+        <v>0.4578467451490837</v>
       </c>
       <c r="C2">
-        <v>0.1025493850634049</v>
+        <v>0.1991884356940687</v>
       </c>
       <c r="D2">
-        <v>0.07702637356286601</v>
+        <v>0.03206244218753085</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3646172368500302</v>
+        <v>0.6078258541310433</v>
       </c>
       <c r="G2">
-        <v>0.2603243580813697</v>
+        <v>0.4480220758028679</v>
       </c>
       <c r="H2">
-        <v>0.24356674391003</v>
+        <v>0.6081854275185492</v>
       </c>
       <c r="I2">
-        <v>0.2704172577305854</v>
+        <v>0.6185071298194167</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.872907487418928</v>
+        <v>0.2683249136942436</v>
       </c>
       <c r="L2">
-        <v>0.4043479267382537</v>
+        <v>0.3012598701712932</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6842880047191571</v>
+        <v>1.358636737792086</v>
       </c>
       <c r="O2">
-        <v>1.010766330041321</v>
+        <v>2.066951527494737</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.953858827242982</v>
+        <v>0.4156696696697963</v>
       </c>
       <c r="C3">
-        <v>0.1039117754326924</v>
+        <v>0.2000140003190509</v>
       </c>
       <c r="D3">
-        <v>0.06834329757342772</v>
+        <v>0.02915041203873869</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3465172468521942</v>
+        <v>0.6077144828079994</v>
       </c>
       <c r="G3">
-        <v>0.2509098027780681</v>
+        <v>0.4493582754859062</v>
       </c>
       <c r="H3">
-        <v>0.2439337495366374</v>
+        <v>0.6119266063073496</v>
       </c>
       <c r="I3">
-        <v>0.2713072268235344</v>
+        <v>0.6232048119579048</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7641914189416923</v>
+        <v>0.2341596531124424</v>
       </c>
       <c r="L3">
-        <v>0.3568610659209952</v>
+        <v>0.2898280985136523</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7133349136274951</v>
+        <v>1.371591582938851</v>
       </c>
       <c r="O3">
-        <v>0.9912749839899675</v>
+        <v>2.0773960803173</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8661522776058348</v>
+        <v>0.389833631767516</v>
       </c>
       <c r="C4">
-        <v>0.1048009824792828</v>
+        <v>0.2005562415983206</v>
       </c>
       <c r="D4">
-        <v>0.06299475947110977</v>
+        <v>0.0273480889464679</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3360456236734279</v>
+        <v>0.6079961524622348</v>
       </c>
       <c r="G4">
-        <v>0.2456930372408479</v>
+        <v>0.4504627689000529</v>
       </c>
       <c r="H4">
-        <v>0.2445299943896515</v>
+        <v>0.6144610090860567</v>
       </c>
       <c r="I4">
-        <v>0.2723799465227792</v>
+        <v>0.626390741858593</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6973413515700173</v>
+        <v>0.2131160319316336</v>
       </c>
       <c r="L4">
-        <v>0.3280586022896443</v>
+        <v>0.2829770113289101</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7320067647477906</v>
+        <v>1.37998325431121</v>
       </c>
       <c r="O4">
-        <v>0.9812710793297441</v>
+        <v>2.084900293518373</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.830421464416446</v>
+        <v>0.3793213003085896</v>
       </c>
       <c r="C5">
-        <v>0.1051765618174834</v>
+        <v>0.2007861224685037</v>
       </c>
       <c r="D5">
-        <v>0.06081054561115451</v>
+        <v>0.02661006224850837</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3319325024043209</v>
+        <v>0.6081990384237486</v>
       </c>
       <c r="G5">
-        <v>0.243702437152379</v>
+        <v>0.4509842902937109</v>
       </c>
       <c r="H5">
-        <v>0.2448634034219026</v>
+        <v>0.615553539748575</v>
       </c>
       <c r="I5">
-        <v>0.2729448585859089</v>
+        <v>0.6277648919774848</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6700694769510562</v>
+        <v>0.2045245566267795</v>
       </c>
       <c r="L5">
-        <v>0.3164033007951019</v>
+        <v>0.2802275198206843</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7398214872134687</v>
+        <v>1.383512941450142</v>
       </c>
       <c r="O5">
-        <v>0.9776685141023762</v>
+        <v>2.088232859220696</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8244887684813591</v>
+        <v>0.3775767282646427</v>
       </c>
       <c r="C6">
-        <v>0.1052397241148526</v>
+        <v>0.2008248331198956</v>
       </c>
       <c r="D6">
-        <v>0.06044756854033295</v>
+        <v>0.02648729921359916</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.331258625604768</v>
+        <v>0.6082380510470671</v>
       </c>
       <c r="G6">
-        <v>0.2433798846278847</v>
+        <v>0.4510752028539642</v>
       </c>
       <c r="H6">
-        <v>0.2449241471395283</v>
+        <v>0.6157385638682698</v>
       </c>
       <c r="I6">
-        <v>0.2730462486647411</v>
+        <v>0.6279976512019481</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6655390463283055</v>
+        <v>0.2030969973867371</v>
       </c>
       <c r="L6">
-        <v>0.3144726896661041</v>
+        <v>0.2797735321612151</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7411314125589463</v>
+        <v>1.384105689006285</v>
       </c>
       <c r="O6">
-        <v>0.9770983842028329</v>
+        <v>2.088802814831126</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8656703687242384</v>
+        <v>0.3896917927388017</v>
       </c>
       <c r="C7">
-        <v>0.1048059941824668</v>
+        <v>0.2005593057274559</v>
       </c>
       <c r="D7">
-        <v>0.0629653216330226</v>
+        <v>0.02733815004867779</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3359895379002751</v>
+        <v>0.6079985318205132</v>
       </c>
       <c r="G7">
-        <v>0.2456656519916436</v>
+        <v>0.4504695130949585</v>
       </c>
       <c r="H7">
-        <v>0.2445341283517735</v>
+        <v>0.6144755013562815</v>
       </c>
       <c r="I7">
-        <v>0.2723870536909168</v>
+        <v>0.6264089669360864</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6969736814979939</v>
+        <v>0.2130002284355612</v>
       </c>
       <c r="L7">
-        <v>0.3279010924129864</v>
+        <v>0.2829397589615326</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7321113296007411</v>
+        <v>1.380030411414898</v>
       </c>
       <c r="O7">
-        <v>0.9812205997131827</v>
+        <v>2.084944125881719</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.047509467702127</v>
+        <v>0.4432919019999986</v>
       </c>
       <c r="C8">
-        <v>0.1030081820298356</v>
+        <v>0.1994657710755732</v>
       </c>
       <c r="D8">
-        <v>0.07403578342211148</v>
+        <v>0.03106136855066666</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3582386892975293</v>
+        <v>0.6077148462408886</v>
       </c>
       <c r="G8">
-        <v>0.2569572044799102</v>
+        <v>0.4484238406876599</v>
       </c>
       <c r="H8">
-        <v>0.2436145657753315</v>
+        <v>0.6094261747355816</v>
       </c>
       <c r="I8">
-        <v>0.2706120866264499</v>
+        <v>0.620064327846741</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8354392067285232</v>
+        <v>0.256558765160122</v>
       </c>
       <c r="L8">
-        <v>0.387896376499242</v>
+        <v>0.297283381272166</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6941268144073014</v>
+        <v>1.3630128221007</v>
       </c>
       <c r="O8">
-        <v>1.003625990159776</v>
+        <v>2.070326410916493</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.405124861738813</v>
+        <v>0.5488561545342634</v>
       </c>
       <c r="C9">
-        <v>0.09990220129263605</v>
+        <v>0.1976005997897019</v>
       </c>
       <c r="D9">
-        <v>0.09562648280324026</v>
+        <v>0.03824762428452999</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4073051386504147</v>
+        <v>0.609933350646557</v>
       </c>
       <c r="G9">
-        <v>0.2838806500841429</v>
+        <v>0.4466666074002532</v>
       </c>
       <c r="H9">
-        <v>0.2448879416406413</v>
+        <v>0.6014044368304212</v>
       </c>
       <c r="I9">
-        <v>0.2715220092640394</v>
+        <v>0.6100136693667544</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.10645903527552</v>
+        <v>0.3414319869407336</v>
       </c>
       <c r="L9">
-        <v>0.5087085051594187</v>
+        <v>0.3267411662053092</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6264971122670211</v>
+        <v>1.333109350813064</v>
       </c>
       <c r="O9">
-        <v>1.064076927490618</v>
+        <v>2.050314443743289</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.669148614009686</v>
+        <v>0.6266609389056725</v>
       </c>
       <c r="C10">
-        <v>0.0978780611841259</v>
+        <v>0.1963988995722659</v>
       </c>
       <c r="D10">
-        <v>0.1114433827251986</v>
+        <v>0.0434559831334127</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4471698219169369</v>
+        <v>0.6132524631356659</v>
       </c>
       <c r="G10">
-        <v>0.3070239796242191</v>
+        <v>0.4467511816644816</v>
       </c>
       <c r="H10">
-        <v>0.2478940221766379</v>
+        <v>0.5966531766674095</v>
       </c>
       <c r="I10">
-        <v>0.2751794065325157</v>
+        <v>0.6040855254925859</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.305677815883257</v>
+        <v>0.4034334797326835</v>
       </c>
       <c r="L10">
-        <v>0.5999106193018378</v>
+        <v>0.3491923933680425</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5813025220977721</v>
+        <v>1.313249887780145</v>
       </c>
       <c r="O10">
-        <v>1.119916771456786</v>
+        <v>2.040882183414254</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.78969455307822</v>
+        <v>0.6621039079178672</v>
       </c>
       <c r="C11">
-        <v>0.09701371157390781</v>
+        <v>0.195888497725285</v>
       </c>
       <c r="D11">
-        <v>0.1186351660433047</v>
+        <v>0.04580964818150335</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4662508440065807</v>
+        <v>0.6151287576010986</v>
       </c>
       <c r="G11">
-        <v>0.3183873139851556</v>
+        <v>0.4470886823423257</v>
       </c>
       <c r="H11">
-        <v>0.2497567359760922</v>
+        <v>0.5947389657229252</v>
       </c>
       <c r="I11">
-        <v>0.2775650133460204</v>
+        <v>0.6017045051325418</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.396427985586172</v>
+        <v>0.431558034991383</v>
       </c>
       <c r="L11">
-        <v>0.6420515859550022</v>
+        <v>0.3595812859780949</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5617906834987139</v>
+        <v>1.304672861895462</v>
       </c>
       <c r="O11">
-        <v>1.14811841403565</v>
+        <v>2.037734772874359</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.83541875555531</v>
+        <v>0.675531628607132</v>
       </c>
       <c r="C12">
-        <v>0.09669456878914673</v>
+        <v>0.1957004093787376</v>
       </c>
       <c r="D12">
-        <v>0.1213585278776179</v>
+        <v>0.0466986378148988</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4736226599605047</v>
+        <v>0.6158918893397498</v>
       </c>
       <c r="G12">
-        <v>0.3228196336607709</v>
+        <v>0.4472594971434916</v>
       </c>
       <c r="H12">
-        <v>0.2505373341535773</v>
+        <v>0.5940495812427145</v>
       </c>
       <c r="I12">
-        <v>0.2785785928907565</v>
+        <v>0.6008482478378809</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.430818985712818</v>
+        <v>0.4421960235016513</v>
       </c>
       <c r="L12">
-        <v>0.6581136089910871</v>
+        <v>0.3635404675172111</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5545591955993814</v>
+        <v>1.301490669980151</v>
       </c>
       <c r="O12">
-        <v>1.159228201335736</v>
+        <v>2.036707243274094</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.825567634759324</v>
+        <v>0.6726394645887979</v>
       </c>
       <c r="C13">
-        <v>0.09676293778784384</v>
+        <v>0.1957406871332807</v>
       </c>
       <c r="D13">
-        <v>0.1207719957245246</v>
+        <v>0.04650728062186715</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4720283351710606</v>
+        <v>0.6157251961159318</v>
       </c>
       <c r="G13">
-        <v>0.321859153500796</v>
+        <v>0.4472207960480006</v>
       </c>
       <c r="H13">
-        <v>0.2503658061019962</v>
+        <v>0.5941964751784354</v>
       </c>
       <c r="I13">
-        <v>0.2783552933176985</v>
+        <v>0.6010306399993333</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.423410984563532</v>
+        <v>0.4399054936839093</v>
       </c>
       <c r="L13">
-        <v>0.6546495620323469</v>
+        <v>0.362686671279036</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5561095243214176</v>
+        <v>1.302173087967859</v>
       </c>
       <c r="O13">
-        <v>1.156815905677291</v>
+        <v>2.03692123313067</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.793454709996638</v>
+        <v>0.663208494355473</v>
       </c>
       <c r="C14">
-        <v>0.09698729150759888</v>
+        <v>0.1958729197108724</v>
       </c>
       <c r="D14">
-        <v>0.1188592160285964</v>
+        <v>0.04588283207959876</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4668543364860582</v>
+        <v>0.6151904867356848</v>
       </c>
       <c r="G14">
-        <v>0.3187493184799735</v>
+        <v>0.4471018733229215</v>
       </c>
       <c r="H14">
-        <v>0.2498194247259988</v>
+        <v>0.5946815387803923</v>
       </c>
       <c r="I14">
-        <v>0.2776461545718369</v>
+        <v>0.6016331508760366</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.399256787538945</v>
+        <v>0.4324334762409876</v>
       </c>
       <c r="L14">
-        <v>0.6433708696570051</v>
+        <v>0.3599065072916119</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5611925545348662</v>
+        <v>1.304409743454961</v>
       </c>
       <c r="O14">
-        <v>1.149023631180995</v>
+        <v>2.0376469445645</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.773794916460503</v>
+        <v>0.6574325402952752</v>
       </c>
       <c r="C15">
-        <v>0.09712577988734949</v>
+        <v>0.195954591130878</v>
       </c>
       <c r="D15">
-        <v>0.1176875965563511</v>
+        <v>0.04550003952807913</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4637044699154629</v>
+        <v>0.6148698123467042</v>
       </c>
       <c r="G15">
-        <v>0.3168615703948632</v>
+        <v>0.4470346312793225</v>
       </c>
       <c r="H15">
-        <v>0.2494946705330534</v>
+        <v>0.594983273869147</v>
       </c>
       <c r="I15">
-        <v>0.2772263343443804</v>
+        <v>0.6020081159403787</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.384465260877704</v>
+        <v>0.4278550461135069</v>
       </c>
       <c r="L15">
-        <v>0.6364762250300942</v>
+        <v>0.3582068456626359</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5643267345334131</v>
+        <v>1.305788321208286</v>
       </c>
       <c r="O15">
-        <v>1.144307547038096</v>
+        <v>2.038112861258526</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.661280584161943</v>
+        <v>0.6243455758556991</v>
       </c>
       <c r="C16">
-        <v>0.09793568853970314</v>
+        <v>0.1964329830685685</v>
       </c>
       <c r="D16">
-        <v>0.1109733546159646</v>
+        <v>0.04330184715217911</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4459427312356965</v>
+        <v>0.6131372100915087</v>
       </c>
       <c r="G16">
-        <v>0.3062989383465222</v>
+        <v>0.4467351433443056</v>
       </c>
       <c r="H16">
-        <v>0.2477825927483082</v>
+        <v>0.5967832435946718</v>
       </c>
       <c r="I16">
-        <v>0.2750385659409567</v>
+        <v>0.6042474824588204</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.299750253868609</v>
+        <v>0.4015938053104833</v>
       </c>
       <c r="L16">
-        <v>0.5971706079883461</v>
+        <v>0.3485169792154466</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5825992996312692</v>
+        <v>1.313819615865633</v>
       </c>
       <c r="O16">
-        <v>1.118132409777758</v>
+        <v>2.041110874088574</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.592378258814051</v>
+        <v>0.6040597978899598</v>
       </c>
       <c r="C17">
-        <v>0.09844703295625123</v>
+        <v>0.1967357302948614</v>
       </c>
       <c r="D17">
-        <v>0.1068538452761771</v>
+        <v>0.04194929031466188</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4352959198958857</v>
+        <v>0.6121681125060476</v>
       </c>
       <c r="G17">
-        <v>0.3000394004953932</v>
+        <v>0.4466280132822007</v>
       </c>
       <c r="H17">
-        <v>0.2468619138707453</v>
+        <v>0.5979507308617471</v>
       </c>
       <c r="I17">
-        <v>0.2738857649890072</v>
+        <v>0.6057021132412501</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.247817738985106</v>
+        <v>0.3854623846487755</v>
       </c>
       <c r="L17">
-        <v>0.5732321868075587</v>
+        <v>0.3426174701112643</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.594081779794891</v>
+        <v>1.318863643287127</v>
       </c>
       <c r="O17">
-        <v>1.102811212888113</v>
+        <v>2.043242840004567</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.552788085030102</v>
+        <v>0.5923966341687503</v>
       </c>
       <c r="C18">
-        <v>0.09874645405441385</v>
+        <v>0.1969132766545059</v>
       </c>
       <c r="D18">
-        <v>0.1044840618190648</v>
+        <v>0.04116986551953516</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4292605919339252</v>
+        <v>0.6116452060412172</v>
       </c>
       <c r="G18">
-        <v>0.2965171256844172</v>
+        <v>0.4465945401866662</v>
       </c>
       <c r="H18">
-        <v>0.2463787236110875</v>
+        <v>0.5986455059615849</v>
       </c>
       <c r="I18">
-        <v>0.2732902432744631</v>
+        <v>0.6065684966748499</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.217958743437066</v>
+        <v>0.3761765038876774</v>
       </c>
       <c r="L18">
-        <v>0.5595242200832189</v>
+        <v>0.3392407759479994</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6007843690983492</v>
+        <v>1.321807862525606</v>
       </c>
       <c r="O18">
-        <v>1.094260639645881</v>
+        <v>2.044576715416497</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.539390133628558</v>
+        <v>0.5884485164209821</v>
       </c>
       <c r="C19">
-        <v>0.09884874325801718</v>
+        <v>0.1969739779233777</v>
       </c>
       <c r="D19">
-        <v>0.1036816194764825</v>
+        <v>0.04090571452190517</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4272320223026611</v>
+        <v>0.6114740851924481</v>
       </c>
       <c r="G19">
-        <v>0.2953376779346613</v>
+        <v>0.4465880404070717</v>
       </c>
       <c r="H19">
-        <v>0.2462229674548411</v>
+        <v>0.5988847427575905</v>
       </c>
       <c r="I19">
-        <v>0.273100020418731</v>
+        <v>0.6068669438772858</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.207850692600886</v>
+        <v>0.3730311929044774</v>
       </c>
       <c r="L19">
-        <v>0.5548930731494721</v>
+        <v>0.3381003314325142</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6030704161001026</v>
+        <v>1.322812114568027</v>
       </c>
       <c r="O19">
-        <v>1.091409700296424</v>
+        <v>2.045046830098741</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.599708734965475</v>
+        <v>0.6062187753477133</v>
       </c>
       <c r="C20">
-        <v>0.09839204961444992</v>
+        <v>0.1967031491585907</v>
       </c>
       <c r="D20">
-        <v>0.1072924069833476</v>
+        <v>0.04209342473484412</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4364200665403857</v>
+        <v>0.6122677052239709</v>
       </c>
       <c r="G20">
-        <v>0.3006975968947074</v>
+        <v>0.4466365044478735</v>
       </c>
       <c r="H20">
-        <v>0.2469550952903887</v>
+        <v>0.5978240421749774</v>
       </c>
       <c r="I20">
-        <v>0.2740014473559604</v>
+        <v>0.605544189703096</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.253344827316425</v>
+        <v>0.3871803841944939</v>
       </c>
       <c r="L20">
-        <v>0.5757741094385551</v>
+        <v>0.3432437712986456</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5928492432127328</v>
+        <v>1.318322244683159</v>
       </c>
       <c r="O20">
-        <v>1.104414891336091</v>
+        <v>2.043004750448659</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.802884883904539</v>
+        <v>0.6659784362949495</v>
       </c>
       <c r="C21">
-        <v>0.09692117128893329</v>
+        <v>0.1958339391395718</v>
       </c>
       <c r="D21">
-        <v>0.1194210421221698</v>
+        <v>0.04606631030557651</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4683700123855417</v>
+        <v>0.6153461163213336</v>
       </c>
       <c r="G21">
-        <v>0.319659168435166</v>
+        <v>0.4471356364322361</v>
       </c>
       <c r="H21">
-        <v>0.2499778353277406</v>
+        <v>0.5945381012159459</v>
       </c>
       <c r="I21">
-        <v>0.2778514021397456</v>
+        <v>0.6014549472695876</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.406350692028127</v>
+        <v>0.4346285242257864</v>
       </c>
       <c r="L21">
-        <v>0.6466807831413206</v>
+        <v>0.3607224278142667</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5596952239272994</v>
+        <v>1.303750999262309</v>
       </c>
       <c r="O21">
-        <v>1.151300499362009</v>
+        <v>2.037429326469635</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.936122186205438</v>
+        <v>0.7050707984833764</v>
       </c>
       <c r="C22">
-        <v>0.09600750071173536</v>
+        <v>0.1952960989958576</v>
       </c>
       <c r="D22">
-        <v>0.1273479875294043</v>
+        <v>0.04864943980690839</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4901087243027362</v>
+        <v>0.6176647107858528</v>
       </c>
       <c r="G22">
-        <v>0.3328097794260003</v>
+        <v>0.4477125512461271</v>
       </c>
       <c r="H22">
-        <v>0.2523938965721726</v>
+        <v>0.5925973606305774</v>
       </c>
       <c r="I22">
-        <v>0.2810131467757984</v>
+        <v>0.5990469123200484</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.506503825700719</v>
+        <v>0.4655673957764179</v>
       </c>
       <c r="L22">
-        <v>0.6936347119760882</v>
+        <v>0.3722921732435083</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5389468968816438</v>
+        <v>1.294611044400476</v>
       </c>
       <c r="O22">
-        <v>1.18446596363853</v>
+        <v>2.034743242506721</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.86496531881906</v>
+        <v>0.6842034539228052</v>
       </c>
       <c r="C23">
-        <v>0.09649076763310305</v>
+        <v>0.1955803954366608</v>
       </c>
       <c r="D23">
-        <v>0.123117045587648</v>
+        <v>0.04727201349494692</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4784243873495768</v>
+        <v>0.6163991959490076</v>
       </c>
       <c r="G23">
-        <v>0.3257185178913318</v>
+        <v>0.4473816982383738</v>
       </c>
       <c r="H23">
-        <v>0.2510627025760641</v>
+        <v>0.5936142655181129</v>
       </c>
       <c r="I23">
-        <v>0.2792643830118813</v>
+        <v>0.6003079278447103</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.453033254166087</v>
+        <v>0.4490614644408879</v>
       </c>
       <c r="L23">
-        <v>0.6685149224054499</v>
+        <v>0.366103828590937</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5499342341734952</v>
+        <v>1.299454145657798</v>
       </c>
       <c r="O23">
-        <v>1.166524455565195</v>
+        <v>2.036089249165883</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.596394556975639</v>
+        <v>0.6052427034435084</v>
       </c>
       <c r="C24">
-        <v>0.09841689063516412</v>
+        <v>0.1967178682087685</v>
       </c>
       <c r="D24">
-        <v>0.1070941377026315</v>
+        <v>0.04202826723494013</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4359115737745043</v>
+        <v>0.6122225726948329</v>
       </c>
       <c r="G24">
-        <v>0.3003997889672192</v>
+        <v>0.4466325780098117</v>
       </c>
       <c r="H24">
-        <v>0.2469128246171763</v>
+        <v>0.5978812447039701</v>
       </c>
       <c r="I24">
-        <v>0.2739489384037448</v>
+        <v>0.6056154931844482</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.250846038444791</v>
+        <v>0.3864037130339852</v>
       </c>
       <c r="L24">
-        <v>0.5746247370760784</v>
+        <v>0.3429605737614168</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5934061584109394</v>
+        <v>1.318566872873966</v>
       </c>
       <c r="O24">
-        <v>1.103689067446922</v>
+        <v>2.043112053759529</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.308204812325272</v>
+        <v>0.520252700251234</v>
       </c>
       <c r="C25">
-        <v>0.1006973348464939</v>
+        <v>0.1980754484435359</v>
       </c>
       <c r="D25">
-        <v>0.08979565750877327</v>
+        <v>0.03631599290952892</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3933991701335415</v>
+        <v>0.6090363708276598</v>
       </c>
       <c r="G25">
-        <v>0.2760404766123941</v>
+        <v>0.4469005058674398</v>
       </c>
       <c r="H25">
-        <v>0.2441945879735812</v>
+        <v>0.6033736559278182</v>
       </c>
       <c r="I25">
-        <v>0.2707745384378448</v>
+        <v>0.6124768178799727</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.033154699658269</v>
+        <v>0.3185322123113963</v>
       </c>
       <c r="L25">
-        <v>0.4756357524288717</v>
+        <v>0.3186298929525719</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.644027341450208</v>
+        <v>1.340828137614245</v>
       </c>
       <c r="O25">
-        <v>1.045819406952347</v>
+        <v>2.05480230170798</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_222/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_222/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4578467451490837</v>
+        <v>1.09682542458566</v>
       </c>
       <c r="C2">
-        <v>0.1991884356940687</v>
+        <v>0.1025493850633268</v>
       </c>
       <c r="D2">
-        <v>0.03206244218753085</v>
+        <v>0.07702637356290865</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6078258541310433</v>
+        <v>0.3646172368500373</v>
       </c>
       <c r="G2">
-        <v>0.4480220758028679</v>
+        <v>0.2603243580814336</v>
       </c>
       <c r="H2">
-        <v>0.6081854275185492</v>
+        <v>0.2435667439101366</v>
       </c>
       <c r="I2">
-        <v>0.6185071298194167</v>
+        <v>0.2704172577305961</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2683249136942436</v>
+        <v>0.8729074874189564</v>
       </c>
       <c r="L2">
-        <v>0.3012598701712932</v>
+        <v>0.4043479267382963</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.358636737792086</v>
+        <v>0.6842880047191642</v>
       </c>
       <c r="O2">
-        <v>2.066951527494737</v>
+        <v>1.010766330041321</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4156696696697963</v>
+        <v>0.9538588272428115</v>
       </c>
       <c r="C3">
-        <v>0.2000140003190509</v>
+        <v>0.1039117754327457</v>
       </c>
       <c r="D3">
-        <v>0.02915041203873869</v>
+        <v>0.06834329757330693</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6077144828079994</v>
+        <v>0.34651724685218</v>
       </c>
       <c r="G3">
-        <v>0.4493582754859062</v>
+        <v>0.2509098027780468</v>
       </c>
       <c r="H3">
-        <v>0.6119266063073496</v>
+        <v>0.2439337495366374</v>
       </c>
       <c r="I3">
-        <v>0.6232048119579048</v>
+        <v>0.2713072268235379</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2341596531124424</v>
+        <v>0.764191418941806</v>
       </c>
       <c r="L3">
-        <v>0.2898280985136523</v>
+        <v>0.3568610659209384</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.371591582938851</v>
+        <v>0.7133349136274951</v>
       </c>
       <c r="O3">
-        <v>2.0773960803173</v>
+        <v>0.9912749839899675</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.389833631767516</v>
+        <v>0.8661522776057211</v>
       </c>
       <c r="C4">
-        <v>0.2005562415983206</v>
+        <v>0.1048009824788103</v>
       </c>
       <c r="D4">
-        <v>0.0273480889464679</v>
+        <v>0.06299475947111688</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6079961524622348</v>
+        <v>0.3360456236734208</v>
       </c>
       <c r="G4">
-        <v>0.4504627689000529</v>
+        <v>0.2456930372408479</v>
       </c>
       <c r="H4">
-        <v>0.6144610090860567</v>
+        <v>0.2445299943896515</v>
       </c>
       <c r="I4">
-        <v>0.626390741858593</v>
+        <v>0.2723799465227756</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2131160319316336</v>
+        <v>0.6973413515699605</v>
       </c>
       <c r="L4">
-        <v>0.2829770113289101</v>
+        <v>0.3280586022895307</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.37998325431121</v>
+        <v>0.7320067647477799</v>
       </c>
       <c r="O4">
-        <v>2.084900293518373</v>
+        <v>0.9812710793296731</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3793213003085896</v>
+        <v>0.8304214644165882</v>
       </c>
       <c r="C5">
-        <v>0.2007861224685037</v>
+        <v>0.1051765618179488</v>
       </c>
       <c r="D5">
-        <v>0.02661006224850837</v>
+        <v>0.06081054561113319</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6081990384237486</v>
+        <v>0.3319325024042925</v>
       </c>
       <c r="G5">
-        <v>0.4509842902937109</v>
+        <v>0.2437024371523222</v>
       </c>
       <c r="H5">
-        <v>0.615553539748575</v>
+        <v>0.2448634034217889</v>
       </c>
       <c r="I5">
-        <v>0.6277648919774848</v>
+        <v>0.2729448585859089</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2045245566267795</v>
+        <v>0.6700694769511273</v>
       </c>
       <c r="L5">
-        <v>0.2802275198206843</v>
+        <v>0.3164033007951161</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.383512941450142</v>
+        <v>0.739821487213451</v>
       </c>
       <c r="O5">
-        <v>2.088232859220696</v>
+        <v>0.9776685141023194</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3775767282646427</v>
+        <v>0.8244887684815865</v>
       </c>
       <c r="C6">
-        <v>0.2008248331198956</v>
+        <v>0.1052397241153855</v>
       </c>
       <c r="D6">
-        <v>0.02648729921359916</v>
+        <v>0.06044756854034006</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6082380510470671</v>
+        <v>0.331258625604768</v>
       </c>
       <c r="G6">
-        <v>0.4510752028539642</v>
+        <v>0.2433798846278776</v>
       </c>
       <c r="H6">
-        <v>0.6157385638682698</v>
+        <v>0.2449241471396419</v>
       </c>
       <c r="I6">
-        <v>0.6279976512019481</v>
+        <v>0.273046248664734</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2030969973867371</v>
+        <v>0.6655390463282913</v>
       </c>
       <c r="L6">
-        <v>0.2797735321612151</v>
+        <v>0.3144726896661467</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.384105689006285</v>
+        <v>0.7411314125590067</v>
       </c>
       <c r="O6">
-        <v>2.088802814831126</v>
+        <v>0.9770983842028187</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3896917927388017</v>
+        <v>0.8656703687243521</v>
       </c>
       <c r="C7">
-        <v>0.2005593057274559</v>
+        <v>0.1048059941827049</v>
       </c>
       <c r="D7">
-        <v>0.02733815004867779</v>
+        <v>0.06296532163268154</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6079985318205132</v>
+        <v>0.3359895379002751</v>
       </c>
       <c r="G7">
-        <v>0.4504695130949585</v>
+        <v>0.2456656519915938</v>
       </c>
       <c r="H7">
-        <v>0.6144755013562815</v>
+        <v>0.2445341283517664</v>
       </c>
       <c r="I7">
-        <v>0.6264089669360864</v>
+        <v>0.2723870536909274</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2130002284355612</v>
+        <v>0.6969736814981076</v>
       </c>
       <c r="L7">
-        <v>0.2829397589615326</v>
+        <v>0.3279010924129437</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.380030411414898</v>
+        <v>0.732111329600686</v>
       </c>
       <c r="O7">
-        <v>2.084944125881719</v>
+        <v>0.9812205997131969</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4432919019999986</v>
+        <v>1.047509467702241</v>
       </c>
       <c r="C8">
-        <v>0.1994657710755732</v>
+        <v>0.1030081820300737</v>
       </c>
       <c r="D8">
-        <v>0.03106136855066666</v>
+        <v>0.07403578342210437</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6077148462408886</v>
+        <v>0.3582386892975364</v>
       </c>
       <c r="G8">
-        <v>0.4484238406876599</v>
+        <v>0.2569572044799031</v>
       </c>
       <c r="H8">
-        <v>0.6094261747355816</v>
+        <v>0.2436145657753244</v>
       </c>
       <c r="I8">
-        <v>0.620064327846741</v>
+        <v>0.2706120866264605</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.256558765160122</v>
+        <v>0.835439206728438</v>
       </c>
       <c r="L8">
-        <v>0.297283381272166</v>
+        <v>0.387896376499242</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.3630128221007</v>
+        <v>0.6941268144072872</v>
       </c>
       <c r="O8">
-        <v>2.070326410916493</v>
+        <v>1.003625990159833</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5488561545342634</v>
+        <v>1.405124861738898</v>
       </c>
       <c r="C9">
-        <v>0.1976005997897019</v>
+        <v>0.09990220129263605</v>
       </c>
       <c r="D9">
-        <v>0.03824762428452999</v>
+        <v>0.09562648280312658</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.609933350646557</v>
+        <v>0.4073051386504005</v>
       </c>
       <c r="G9">
-        <v>0.4466666074002532</v>
+        <v>0.2838806500841429</v>
       </c>
       <c r="H9">
-        <v>0.6014044368304212</v>
+        <v>0.2448879416406413</v>
       </c>
       <c r="I9">
-        <v>0.6100136693667544</v>
+        <v>0.2715220092640394</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3414319869407336</v>
+        <v>1.106459035275577</v>
       </c>
       <c r="L9">
-        <v>0.3267411662053092</v>
+        <v>0.5087085051594755</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.333109350813064</v>
+        <v>0.626497112267014</v>
       </c>
       <c r="O9">
-        <v>2.050314443743289</v>
+        <v>1.064076927490689</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6266609389056725</v>
+        <v>1.669148614009771</v>
       </c>
       <c r="C10">
-        <v>0.1963988995722659</v>
+        <v>0.09787806118435327</v>
       </c>
       <c r="D10">
-        <v>0.0434559831334127</v>
+        <v>0.1114433827248433</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6132524631356659</v>
+        <v>0.4471698219169511</v>
       </c>
       <c r="G10">
-        <v>0.4467511816644816</v>
+        <v>0.3070239796241694</v>
       </c>
       <c r="H10">
-        <v>0.5966531766674095</v>
+        <v>0.2478940221766379</v>
       </c>
       <c r="I10">
-        <v>0.6040855254925859</v>
+        <v>0.2751794065325157</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4034334797326835</v>
+        <v>1.305677815883257</v>
       </c>
       <c r="L10">
-        <v>0.3491923933680425</v>
+        <v>0.5999106193018235</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.313249887780145</v>
+        <v>0.5813025220977615</v>
       </c>
       <c r="O10">
-        <v>2.040882183414254</v>
+        <v>1.119916771456758</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6621039079178672</v>
+        <v>1.789694553078192</v>
       </c>
       <c r="C11">
-        <v>0.195888497725285</v>
+        <v>0.097013711574224</v>
       </c>
       <c r="D11">
-        <v>0.04580964818150335</v>
+        <v>0.1186351660431768</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6151287576010986</v>
+        <v>0.4662508440065736</v>
       </c>
       <c r="G11">
-        <v>0.4470886823423257</v>
+        <v>0.3183873139851698</v>
       </c>
       <c r="H11">
-        <v>0.5947389657229252</v>
+        <v>0.2497567359760922</v>
       </c>
       <c r="I11">
-        <v>0.6017045051325418</v>
+        <v>0.2775650133460275</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.431558034991383</v>
+        <v>1.396427985586143</v>
       </c>
       <c r="L11">
-        <v>0.3595812859780949</v>
+        <v>0.6420515859550591</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.304672861895462</v>
+        <v>0.5617906834987139</v>
       </c>
       <c r="O11">
-        <v>2.037734772874359</v>
+        <v>1.148118414035707</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.675531628607132</v>
+        <v>1.835418755555281</v>
       </c>
       <c r="C12">
-        <v>0.1957004093787376</v>
+        <v>0.09669456878914318</v>
       </c>
       <c r="D12">
-        <v>0.0466986378148988</v>
+        <v>0.1213585278778453</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6158918893397498</v>
+        <v>0.4736226599605047</v>
       </c>
       <c r="G12">
-        <v>0.4472594971434916</v>
+        <v>0.3228196336608846</v>
       </c>
       <c r="H12">
-        <v>0.5940495812427145</v>
+        <v>0.2505373341535773</v>
       </c>
       <c r="I12">
-        <v>0.6008482478378809</v>
+        <v>0.2785785928907458</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4421960235016513</v>
+        <v>1.43081898571279</v>
       </c>
       <c r="L12">
-        <v>0.3635404675172111</v>
+        <v>0.6581136089910871</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.301490669980151</v>
+        <v>0.5545591955993778</v>
       </c>
       <c r="O12">
-        <v>2.036707243274094</v>
+        <v>1.159228201335679</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6726394645887979</v>
+        <v>1.825567634759295</v>
       </c>
       <c r="C13">
-        <v>0.1957406871332807</v>
+        <v>0.09676293778808187</v>
       </c>
       <c r="D13">
-        <v>0.04650728062186715</v>
+        <v>0.1207719957244109</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6157251961159318</v>
+        <v>0.4720283351710677</v>
       </c>
       <c r="G13">
-        <v>0.4472207960480006</v>
+        <v>0.321859153500796</v>
       </c>
       <c r="H13">
-        <v>0.5941964751784354</v>
+        <v>0.2503658061019962</v>
       </c>
       <c r="I13">
-        <v>0.6010306399993333</v>
+        <v>0.2783552933176985</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4399054936839093</v>
+        <v>1.42341098456356</v>
       </c>
       <c r="L13">
-        <v>0.362686671279036</v>
+        <v>0.6546495620323327</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.302173087967859</v>
+        <v>0.5561095243214069</v>
       </c>
       <c r="O13">
-        <v>2.03692123313067</v>
+        <v>1.156815905677348</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.663208494355473</v>
+        <v>1.793454709996581</v>
       </c>
       <c r="C14">
-        <v>0.1958729197108724</v>
+        <v>0.09698729150790797</v>
       </c>
       <c r="D14">
-        <v>0.04588283207959876</v>
+        <v>0.1188592160287527</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6151904867356848</v>
+        <v>0.466854336486044</v>
       </c>
       <c r="G14">
-        <v>0.4471018733229215</v>
+        <v>0.3187493184799735</v>
       </c>
       <c r="H14">
-        <v>0.5946815387803923</v>
+        <v>0.2498194247258851</v>
       </c>
       <c r="I14">
-        <v>0.6016331508760366</v>
+        <v>0.2776461545718334</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4324334762409876</v>
+        <v>1.399256787538917</v>
       </c>
       <c r="L14">
-        <v>0.3599065072916119</v>
+        <v>0.6433708696570335</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.304409743454961</v>
+        <v>0.5611925545348697</v>
       </c>
       <c r="O14">
-        <v>2.0376469445645</v>
+        <v>1.149023631180995</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6574325402952752</v>
+        <v>1.773794916460275</v>
       </c>
       <c r="C15">
-        <v>0.195954591130878</v>
+        <v>0.09712577988758042</v>
       </c>
       <c r="D15">
-        <v>0.04550003952807913</v>
+        <v>0.1176875965562374</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6148698123467042</v>
+        <v>0.46370446991547</v>
       </c>
       <c r="G15">
-        <v>0.4470346312793225</v>
+        <v>0.3168615703948063</v>
       </c>
       <c r="H15">
-        <v>0.594983273869147</v>
+        <v>0.2494946705330676</v>
       </c>
       <c r="I15">
-        <v>0.6020081159403787</v>
+        <v>0.2772263343444052</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4278550461135069</v>
+        <v>1.384465260877789</v>
       </c>
       <c r="L15">
-        <v>0.3582068456626359</v>
+        <v>0.6364762250301652</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.305788321208286</v>
+        <v>0.5643267345334131</v>
       </c>
       <c r="O15">
-        <v>2.038112861258526</v>
+        <v>1.144307547038125</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6243455758556991</v>
+        <v>1.661280584161972</v>
       </c>
       <c r="C16">
-        <v>0.1964329830685685</v>
+        <v>0.09793568853962853</v>
       </c>
       <c r="D16">
-        <v>0.04330184715217911</v>
+        <v>0.1109733546156093</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6131372100915087</v>
+        <v>0.4459427312356965</v>
       </c>
       <c r="G16">
-        <v>0.4467351433443056</v>
+        <v>0.306298938346508</v>
       </c>
       <c r="H16">
-        <v>0.5967832435946718</v>
+        <v>0.2477825927483011</v>
       </c>
       <c r="I16">
-        <v>0.6042474824588204</v>
+        <v>0.2750385659409567</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4015938053104833</v>
+        <v>1.299750253868666</v>
       </c>
       <c r="L16">
-        <v>0.3485169792154466</v>
+        <v>0.5971706079883887</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.313819615865633</v>
+        <v>0.5825992996312657</v>
       </c>
       <c r="O16">
-        <v>2.041110874088574</v>
+        <v>1.118132409777786</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6040597978899598</v>
+        <v>1.592378258814108</v>
       </c>
       <c r="C17">
-        <v>0.1967357302948614</v>
+        <v>0.09844703295648216</v>
       </c>
       <c r="D17">
-        <v>0.04194929031466188</v>
+        <v>0.1068538452761345</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6121681125060476</v>
+        <v>0.4352959198958857</v>
       </c>
       <c r="G17">
-        <v>0.4466280132822007</v>
+        <v>0.3000394004953222</v>
       </c>
       <c r="H17">
-        <v>0.5979507308617471</v>
+        <v>0.2468619138707382</v>
       </c>
       <c r="I17">
-        <v>0.6057021132412501</v>
+        <v>0.2738857649890036</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3854623846487755</v>
+        <v>1.247817738985077</v>
       </c>
       <c r="L17">
-        <v>0.3426174701112643</v>
+        <v>0.5732321868075019</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.318863643287127</v>
+        <v>0.59408177979493</v>
       </c>
       <c r="O17">
-        <v>2.043242840004567</v>
+        <v>1.102811212888099</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5923966341687503</v>
+        <v>1.552788085029988</v>
       </c>
       <c r="C18">
-        <v>0.1969132766545059</v>
+        <v>0.0987464540544849</v>
       </c>
       <c r="D18">
-        <v>0.04116986551953516</v>
+        <v>0.1044840618189298</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6116452060412172</v>
+        <v>0.4292605919339252</v>
       </c>
       <c r="G18">
-        <v>0.4465945401866662</v>
+        <v>0.296517125684403</v>
       </c>
       <c r="H18">
-        <v>0.5986455059615849</v>
+        <v>0.2463787236110875</v>
       </c>
       <c r="I18">
-        <v>0.6065684966748499</v>
+        <v>0.2732902432744737</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3761765038876774</v>
+        <v>1.217958743437123</v>
       </c>
       <c r="L18">
-        <v>0.3392407759479994</v>
+        <v>0.5595242200831336</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.321807862525606</v>
+        <v>0.600784369098271</v>
       </c>
       <c r="O18">
-        <v>2.044576715416497</v>
+        <v>1.094260639645881</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5884485164209821</v>
+        <v>1.53939013362853</v>
       </c>
       <c r="C19">
-        <v>0.1969739779233777</v>
+        <v>0.09884874325824455</v>
       </c>
       <c r="D19">
-        <v>0.04090571452190517</v>
+        <v>0.1036816194765606</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6114740851924481</v>
+        <v>0.4272320223026753</v>
       </c>
       <c r="G19">
-        <v>0.4465880404070717</v>
+        <v>0.2953376779346542</v>
       </c>
       <c r="H19">
-        <v>0.5988847427575905</v>
+        <v>0.2462229674548411</v>
       </c>
       <c r="I19">
-        <v>0.6068669438772858</v>
+        <v>0.273100020418731</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3730311929044774</v>
+        <v>1.207850692600914</v>
       </c>
       <c r="L19">
-        <v>0.3381003314325142</v>
+        <v>0.5548930731495574</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.322812114568027</v>
+        <v>0.6030704161000919</v>
       </c>
       <c r="O19">
-        <v>2.045046830098741</v>
+        <v>1.091409700296438</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6062187753477133</v>
+        <v>1.59970873496539</v>
       </c>
       <c r="C20">
-        <v>0.1967031491585907</v>
+        <v>0.09839204961413728</v>
       </c>
       <c r="D20">
-        <v>0.04209342473484412</v>
+        <v>0.107292406983305</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6122677052239709</v>
+        <v>0.4364200665403857</v>
       </c>
       <c r="G20">
-        <v>0.4466365044478735</v>
+        <v>0.3006975968947216</v>
       </c>
       <c r="H20">
-        <v>0.5978240421749774</v>
+        <v>0.2469550952903816</v>
       </c>
       <c r="I20">
-        <v>0.605544189703096</v>
+        <v>0.274001447355964</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3871803841944939</v>
+        <v>1.253344827316624</v>
       </c>
       <c r="L20">
-        <v>0.3432437712986456</v>
+        <v>0.5757741094384983</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.318322244683159</v>
+        <v>0.5928492432127861</v>
       </c>
       <c r="O20">
-        <v>2.043004750448659</v>
+        <v>1.104414891336134</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6659784362949495</v>
+        <v>1.80288488390471</v>
       </c>
       <c r="C21">
-        <v>0.1958339391395718</v>
+        <v>0.09692117128869526</v>
       </c>
       <c r="D21">
-        <v>0.04606631030557651</v>
+        <v>0.1194210421221129</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6153461163213336</v>
+        <v>0.4683700123855346</v>
       </c>
       <c r="G21">
-        <v>0.4471356364322361</v>
+        <v>0.3196591684352228</v>
       </c>
       <c r="H21">
-        <v>0.5945381012159459</v>
+        <v>0.2499778353277406</v>
       </c>
       <c r="I21">
-        <v>0.6014549472695876</v>
+        <v>0.2778514021397278</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4346285242257864</v>
+        <v>1.406350692028155</v>
       </c>
       <c r="L21">
-        <v>0.3607224278142667</v>
+        <v>0.6466807831411927</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.303750999262309</v>
+        <v>0.5596952239273492</v>
       </c>
       <c r="O21">
-        <v>2.037429326469635</v>
+        <v>1.151300499362065</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7050707984833764</v>
+        <v>1.936122186205523</v>
       </c>
       <c r="C22">
-        <v>0.1952960989958576</v>
+        <v>0.09600750071228248</v>
       </c>
       <c r="D22">
-        <v>0.04864943980690839</v>
+        <v>0.1273479875294612</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6176647107858528</v>
+        <v>0.4901087243027291</v>
       </c>
       <c r="G22">
-        <v>0.4477125512461271</v>
+        <v>0.3328097794260572</v>
       </c>
       <c r="H22">
-        <v>0.5925973606305774</v>
+        <v>0.2523938965720589</v>
       </c>
       <c r="I22">
-        <v>0.5990469123200484</v>
+        <v>0.2810131467757984</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4655673957764179</v>
+        <v>1.506503825700804</v>
       </c>
       <c r="L22">
-        <v>0.3722921732435083</v>
+        <v>0.6936347119759887</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.294611044400476</v>
+        <v>0.5389468968815834</v>
       </c>
       <c r="O22">
-        <v>2.034743242506721</v>
+        <v>1.184465963638559</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6842034539228052</v>
+        <v>1.864965318818918</v>
       </c>
       <c r="C23">
-        <v>0.1955803954366608</v>
+        <v>0.09649076763287923</v>
       </c>
       <c r="D23">
-        <v>0.04727201349494692</v>
+        <v>0.1231170455877901</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6163991959490076</v>
+        <v>0.4784243873495768</v>
       </c>
       <c r="G23">
-        <v>0.4473816982383738</v>
+        <v>0.325718517891346</v>
       </c>
       <c r="H23">
-        <v>0.5936142655181129</v>
+        <v>0.2510627025761778</v>
       </c>
       <c r="I23">
-        <v>0.6003079278447103</v>
+        <v>0.279264383011899</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4490614644408879</v>
+        <v>1.453033254166058</v>
       </c>
       <c r="L23">
-        <v>0.366103828590937</v>
+        <v>0.668514922405393</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.299454145657798</v>
+        <v>0.549934234173481</v>
       </c>
       <c r="O23">
-        <v>2.036089249165883</v>
+        <v>1.166524455565138</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6052427034435084</v>
+        <v>1.596394556975696</v>
       </c>
       <c r="C24">
-        <v>0.1967178682087685</v>
+        <v>0.09841689063514991</v>
       </c>
       <c r="D24">
-        <v>0.04202826723494013</v>
+        <v>0.1070941377025889</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6122225726948329</v>
+        <v>0.4359115737745043</v>
       </c>
       <c r="G24">
-        <v>0.4466325780098117</v>
+        <v>0.3003997889672334</v>
       </c>
       <c r="H24">
-        <v>0.5978812447039701</v>
+        <v>0.2469128246170627</v>
       </c>
       <c r="I24">
-        <v>0.6056154931844482</v>
+        <v>0.2739489384037448</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3864037130339852</v>
+        <v>1.250846038444621</v>
       </c>
       <c r="L24">
-        <v>0.3429605737614168</v>
+        <v>0.5746247370760926</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.318566872873966</v>
+        <v>0.5934061584109962</v>
       </c>
       <c r="O24">
-        <v>2.043112053759529</v>
+        <v>1.103689067446894</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.520252700251234</v>
+        <v>1.308204812325187</v>
       </c>
       <c r="C25">
-        <v>0.1980754484435359</v>
+        <v>0.1006973348467248</v>
       </c>
       <c r="D25">
-        <v>0.03631599290952892</v>
+        <v>0.0897956575085388</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6090363708276598</v>
+        <v>0.3933991701335131</v>
       </c>
       <c r="G25">
-        <v>0.4469005058674398</v>
+        <v>0.2760404766123443</v>
       </c>
       <c r="H25">
-        <v>0.6033736559278182</v>
+        <v>0.2441945879736949</v>
       </c>
       <c r="I25">
-        <v>0.6124768178799727</v>
+        <v>0.2707745384378413</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3185322123113963</v>
+        <v>1.033154699658269</v>
       </c>
       <c r="L25">
-        <v>0.3186298929525719</v>
+        <v>0.4756357524287722</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.340828137614245</v>
+        <v>0.6440273414501938</v>
       </c>
       <c r="O25">
-        <v>2.05480230170798</v>
+        <v>1.045819406952319</v>
       </c>
     </row>
   </sheetData>
